--- a/python/calc2/examples/short_test/result.xlsx
+++ b/python/calc2/examples/short_test/result.xlsx
@@ -69,6 +69,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -434,10 +502,10 @@
         <v>3600</v>
       </c>
       <c r="E2" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F2" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20.8</v>
       </c>
       <c r="G2" t="n">
         <v>3333.33</v>
@@ -470,10 +538,10 @@
         <v>3323.08</v>
       </c>
       <c r="E3" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F3" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20.8</v>
       </c>
       <c r="G3" t="n">
         <v>3076.92</v>
@@ -506,10 +574,10 @@
         <v>3085.71</v>
       </c>
       <c r="E4" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F4" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.8</v>
       </c>
       <c r="G4" t="n">
         <v>2857.14</v>
@@ -542,10 +610,10 @@
         <v>2880</v>
       </c>
       <c r="E5" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F5" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20.8</v>
       </c>
       <c r="G5" t="n">
         <v>2666.67</v>
@@ -578,10 +646,10 @@
         <v>2700</v>
       </c>
       <c r="E6" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F6" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>20.8</v>
       </c>
       <c r="G6" t="n">
         <v>2500</v>
@@ -614,10 +682,10 @@
         <v>2541.18</v>
       </c>
       <c r="E7" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F7" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20.8</v>
       </c>
       <c r="G7" t="n">
         <v>2352.94</v>
@@ -650,10 +718,10 @@
         <v>4800</v>
       </c>
       <c r="E8" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F8" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>20.8</v>
       </c>
       <c r="G8" t="n">
         <v>4444.44</v>
@@ -686,10 +754,10 @@
         <v>4320</v>
       </c>
       <c r="E9" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F9" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>20.8</v>
       </c>
       <c r="G9" t="n">
         <v>4000</v>
@@ -722,10 +790,10 @@
         <v>3927.27</v>
       </c>
       <c r="E10" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F10" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>20.8</v>
       </c>
       <c r="G10" t="n">
         <v>3636.36</v>
@@ -758,10 +826,10 @@
         <v>3600</v>
       </c>
       <c r="E11" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F11" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>20.8</v>
       </c>
       <c r="G11" t="n">
         <v>3333.33</v>
@@ -794,10 +862,10 @@
         <v>3323.08</v>
       </c>
       <c r="E12" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F12" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>20.8</v>
       </c>
       <c r="G12" t="n">
         <v>3076.92</v>
@@ -830,10 +898,10 @@
         <v>3085.71</v>
       </c>
       <c r="E13" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F13" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>20.8</v>
       </c>
       <c r="G13" t="n">
         <v>2857.14</v>
@@ -866,10 +934,10 @@
         <v>2880</v>
       </c>
       <c r="E14" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F14" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>20.8</v>
       </c>
       <c r="G14" t="n">
         <v>2666.67</v>
@@ -902,10 +970,10 @@
         <v>2700</v>
       </c>
       <c r="E15" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F15" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>20.8</v>
       </c>
       <c r="G15" t="n">
         <v>2500</v>
@@ -938,10 +1006,10 @@
         <v>2541.18</v>
       </c>
       <c r="E16" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="F16" t="n">
         <v>43.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>20.8</v>
       </c>
       <c r="G16" t="n">
         <v>2352.94</v>
@@ -974,10 +1042,10 @@
         <v>4320</v>
       </c>
       <c r="E17" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F17" t="n">
         <v>64.8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>31.2</v>
       </c>
       <c r="G17" t="n">
         <v>2666.67</v>
@@ -1010,10 +1078,10 @@
         <v>4050</v>
       </c>
       <c r="E18" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F18" t="n">
         <v>64.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>31.2</v>
       </c>
       <c r="G18" t="n">
         <v>2500</v>
@@ -1046,10 +1114,10 @@
         <v>3811.76</v>
       </c>
       <c r="E19" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F19" t="n">
         <v>64.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>31.2</v>
       </c>
       <c r="G19" t="n">
         <v>2352.94</v>
@@ -1082,10 +1150,10 @@
         <v>3600</v>
       </c>
       <c r="E20" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F20" t="n">
         <v>64.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>31.2</v>
       </c>
       <c r="G20" t="n">
         <v>2222.22</v>
@@ -1118,10 +1186,10 @@
         <v>3410.53</v>
       </c>
       <c r="E21" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F21" t="n">
         <v>64.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>31.2</v>
       </c>
       <c r="G21" t="n">
         <v>2105.26</v>
@@ -1154,10 +1222,10 @@
         <v>3240</v>
       </c>
       <c r="E22" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F22" t="n">
         <v>64.8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>31.2</v>
       </c>
       <c r="G22" t="n">
         <v>2000</v>
@@ -1190,10 +1258,10 @@
         <v>3085.71</v>
       </c>
       <c r="E23" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F23" t="n">
         <v>64.8</v>
-      </c>
-      <c r="F23" t="n">
-        <v>31.2</v>
       </c>
       <c r="G23" t="n">
         <v>1904.76</v>
@@ -1226,10 +1294,10 @@
         <v>2945.45</v>
       </c>
       <c r="E24" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F24" t="n">
         <v>64.8</v>
-      </c>
-      <c r="F24" t="n">
-        <v>31.2</v>
       </c>
       <c r="G24" t="n">
         <v>1818.18</v>
@@ -1262,10 +1330,10 @@
         <v>2817.39</v>
       </c>
       <c r="E25" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F25" t="n">
         <v>64.8</v>
-      </c>
-      <c r="F25" t="n">
-        <v>31.2</v>
       </c>
       <c r="G25" t="n">
         <v>1739.13</v>
@@ -1298,10 +1366,10 @@
         <v>2700</v>
       </c>
       <c r="E26" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="F26" t="n">
         <v>64.8</v>
-      </c>
-      <c r="F26" t="n">
-        <v>31.2</v>
       </c>
       <c r="G26" t="n">
         <v>1666.67</v>
@@ -1374,7 +1442,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.2</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="5">
@@ -1384,7 +1452,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.8</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="6">
@@ -1485,7 +1553,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.2</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="5">
@@ -1495,7 +1563,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.8</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="6">
